--- a/documents/企画書.xlsx
+++ b/documents/企画書.xlsx
@@ -5,13 +5,34 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="2" r:id="rId5"/>
+    <sheet name="表紙" sheetId="3" r:id="rId6"/>
+    <sheet name="アプリ作成目的" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
+  </si>
+  <si>
+    <t>Numbersシート名</t>
+  </si>
+  <si>
+    <t>Numbers表名</t>
+  </si>
+  <si>
+    <t>Excelワークシート名</t>
+  </si>
+  <si>
+    <t>シート1</t>
+  </si>
+  <si>
+    <t>表1</t>
+  </si>
   <si>
     <t>ポートフォリオ作成の目的</t>
   </si>
@@ -55,15 +76,58 @@
 デプロイ環境：Microsoft Azure
 DB：SQLデータベース</t>
   </si>
+  <si>
+    <t>表紙</t>
+  </si>
+  <si>
+    <t>カレンダーアプリ企画書</t>
+  </si>
+  <si>
+    <t>更新履歴</t>
+  </si>
+  <si>
+    <t>版数・リビジョン</t>
+  </si>
+  <si>
+    <t>作成・更新日</t>
+  </si>
+  <si>
+    <t>改版理由・箇所</t>
+  </si>
+  <si>
+    <t>担当</t>
+  </si>
+  <si>
+    <t>Rev 1.0</t>
+  </si>
+  <si>
+    <t>初版作成</t>
+  </si>
+  <si>
+    <t>山崎</t>
+  </si>
+  <si>
+    <t>アプリ作成目的</t>
+  </si>
+  <si>
+    <t>アプリケーション作成の目的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　普段PCの操作に慣れていない方でも感覚的に自分のタスクを日付ごとに管理出来るようアプリケーションを作成することを目的としました。
+　現在、セキュリティソフトのヘルプデスク業務に従事しておりますがお電話いただくお客様のほとんどはPC操作に慣れていない方がほとんどです。そのためそんな方でも画面を見た時にタスクの管理を行えるようにシンプルな見た目になるようにアプリケーションを作成しました。
+　必要な機能としてアカウントごとに情報を管理するためにアカウントの登録、編集、削除機能と日付ごとのタスク管理のためカレンダーの表示機能、日付ごとのタスクの追加、編集、削除機能、そしてタスクごとの達成率確認のための進捗確認画面が必要だと考えました。ただ現在、タスクごとの達成率確認画面とタスクを実行済みかどうかのチェック機能が未実装であるため、今後はタスクの達成、未達成のチェック機能と一覧でタスク状況が見れる画面を作成予定です。
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -75,20 +139,65 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="45"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -111,26 +220,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -150,6 +403,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffd5d5d5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1178,179 +1436,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'シート1'!R1C1" tooltip="" display="シート1"/>
+    <hyperlink ref="D12" location="'表紙'!R1C1" tooltip="" display="表紙"/>
+    <hyperlink ref="D14" location="'アプリ作成目的'!R1C1" tooltip="" display="アプリ作成目的"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="19.6016" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6328" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="1" max="4" width="19.6016" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.95" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" ht="8.5" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="8" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="8" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="23.95" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="20.95" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="8.5" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="8" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="8" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="38.95" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="20.95" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="8.5" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="8" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="8" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="83.95" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="20.95" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" ht="8.5" customHeight="1">
-      <c r="A17" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="8" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" ht="8" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="8" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="150.95" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1369,4 +1716,402 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="24.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="19.6016" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.4062" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.6016" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="19.6016" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.8" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" ht="20.15" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" ht="20.45" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="20.45" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="20.15" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="19.8" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="19.8" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="19.8" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="19.8" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="19.8" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="19.8" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="19.8" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="19.8" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="19.8" customHeight="1">
+      <c r="A14" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="20.15" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" ht="20.45" customHeight="1">
+      <c r="A16" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" t="s" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="20.45" customHeight="1">
+      <c r="A17" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44886</v>
+      </c>
+      <c r="C17" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" t="s" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="20.45" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" ht="20.45" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B7:F11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="22" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="24.15" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/documents/企画書.xlsx
+++ b/documents/企画書.xlsx
@@ -9,12 +9,14 @@
     <sheet name="シート1" sheetId="2" r:id="rId5"/>
     <sheet name="表紙" sheetId="3" r:id="rId6"/>
     <sheet name="アプリ作成目的" sheetId="4" r:id="rId7"/>
+    <sheet name="アプリの機能-1" sheetId="5" r:id="rId8"/>
+    <sheet name="アプリの機能-2" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -116,6 +118,27 @@
     <t xml:space="preserve">　普段PCの操作に慣れていない方でも感覚的に自分のタスクを日付ごとに管理出来るようアプリケーションを作成することを目的としました。
 　現在、セキュリティソフトのヘルプデスク業務に従事しておりますがお電話いただくお客様のほとんどはPC操作に慣れていない方がほとんどです。そのためそんな方でも画面を見た時にタスクの管理を行えるようにシンプルな見た目になるようにアプリケーションを作成しました。
 　必要な機能としてアカウントごとに情報を管理するためにアカウントの登録、編集、削除機能と日付ごとのタスク管理のためカレンダーの表示機能、日付ごとのタスクの追加、編集、削除機能、そしてタスクごとの達成率確認のための進捗確認画面が必要だと考えました。ただ現在、タスクごとの達成率確認画面とタスクを実行済みかどうかのチェック機能が未実装であるため、今後はタスクの達成、未達成のチェック機能と一覧でタスク状況が見れる画面を作成予定です。
+</t>
+  </si>
+  <si>
+    <t>アプリの機能-1</t>
+  </si>
+  <si>
+    <t>ログイン・ログアウト機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録済みのアカウント情報にログイン・ログアウトする機能
+</t>
+  </si>
+  <si>
+    <t>アプリの機能-2</t>
+  </si>
+  <si>
+    <t>アカウントの作成、編集、削除機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ニックネーム、メールアドレス、パスワードにてアカウントを作成する機能
+「アカウント登録画面、アカウント登録確認画面、アカウント登録完了画面」を作成
 </t>
   </si>
 </sst>
@@ -316,7 +339,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -386,6 +409,12 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,6 +440,473 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115548</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>642609</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="スクリーンショット 2023-04-28 21.17.15.png" descr="スクリーンショット 2023-04-28 21.17.15.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115548" y="2890038"/>
+          <a:ext cx="5505462" cy="3047952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>858940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143817</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="画面イメージ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2103540" y="2377442"/>
+          <a:ext cx="1529478" cy="857543"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="5400" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2418" y="0"/>
+                <a:pt x="0" y="4835"/>
+                <a:pt x="0" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="16765"/>
+                <a:pt x="2418" y="21600"/>
+                <a:pt x="5400" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16200" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="19182" y="21600"/>
+                <a:pt x="21600" y="16765"/>
+                <a:pt x="21600" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="4835"/>
+                <a:pt x="19182" y="0"/>
+                <a:pt x="16200" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5400" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>画面イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756959</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041836</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="画面イメージ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2001559" y="643330"/>
+          <a:ext cx="1529478" cy="857542"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="5400" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2418" y="0"/>
+                <a:pt x="0" y="4835"/>
+                <a:pt x="0" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="16765"/>
+                <a:pt x="2418" y="21600"/>
+                <a:pt x="5400" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16200" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="19182" y="21600"/>
+                <a:pt x="21600" y="16765"/>
+                <a:pt x="21600" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="4835"/>
+                <a:pt x="19182" y="0"/>
+                <a:pt x="16200" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5400" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>画面イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607456</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>959842</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="スクリーンショット 2023-04-28 21.58.31.png" descr="スクリーンショット 2023-04-28 21.58.31.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607456" y="1239752"/>
+          <a:ext cx="4086187" cy="1990427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607456</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>959842</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="スクリーンショット 2023-04-28 21.59.36.png" descr="スクリーンショット 2023-04-28 21.59.36.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607456" y="3369437"/>
+          <a:ext cx="4086187" cy="1931390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607456</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>244516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>959842</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1656220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="スクリーンショット 2023-04-28 22.10.32.png" descr="スクリーンショット 2023-04-28 22.10.32.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst/>
+        </a:blip>
+        <a:srcRect l="0" t="0" r="0" b="0"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607456" y="5440086"/>
+          <a:ext cx="4086187" cy="1989555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1511,6 +2007,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -1519,6 +2047,8 @@
     <hyperlink ref="D10" location="'シート1'!R1C1" tooltip="" display="シート1"/>
     <hyperlink ref="D12" location="'表紙'!R1C1" tooltip="" display="表紙"/>
     <hyperlink ref="D14" location="'アプリ作成目的'!R1C1" tooltip="" display="アプリ作成目的"/>
+    <hyperlink ref="D16" location="'アプリの機能-1'!R1C1" tooltip="" display="アプリの機能-1"/>
+    <hyperlink ref="D18" location="'アプリの機能-2'!R1C1" tooltip="" display="アプリの機能-2"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -2114,4 +2644,360 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="23" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="24.15" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="24" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="151.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/企画書.xlsx
+++ b/documents/企画書.xlsx
@@ -11,12 +11,17 @@
     <sheet name="アプリ作成目的" sheetId="4" r:id="rId7"/>
     <sheet name="アプリの機能-1" sheetId="5" r:id="rId8"/>
     <sheet name="アプリの機能-2" sheetId="6" r:id="rId9"/>
+    <sheet name="アプリの機能-3" sheetId="7" r:id="rId10"/>
+    <sheet name="アプリの機能-4" sheetId="8" r:id="rId11"/>
+    <sheet name="アプリの機能-5" sheetId="9" r:id="rId12"/>
+    <sheet name="アプリの機能-6" sheetId="10" r:id="rId13"/>
+    <sheet name="アプリの機能-7" sheetId="11" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -128,17 +133,73 @@
   </si>
   <si>
     <t xml:space="preserve">登録済みのアカウント情報にログイン・ログアウトする機能
+「ログイン画面、ログアウト画面」を作成
 </t>
   </si>
   <si>
     <t>アプリの機能-2</t>
   </si>
   <si>
-    <t>アカウントの作成、編集、削除機能</t>
+    <t>アカウントの作成機能</t>
   </si>
   <si>
     <t xml:space="preserve">ニックネーム、メールアドレス、パスワードにてアカウントを作成する機能
 「アカウント登録画面、アカウント登録確認画面、アカウント登録完了画面」を作成
+</t>
+  </si>
+  <si>
+    <t>アプリの機能-3</t>
+  </si>
+  <si>
+    <t>アカウントの編集機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録済みのニックネーム、メールアドレス、パスワードを編集する機能
+「アカウント登録画面、アカウント登録確認画面、アカウント登録完了画面」を作成
+</t>
+  </si>
+  <si>
+    <t>アプリの機能-4</t>
+  </si>
+  <si>
+    <t>アカウントの削除機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録済みのアカウント情報を削除する機能
+「アカウント削除画面、アカウント削除完了画面」を作成
+</t>
+  </si>
+  <si>
+    <t>アプリの機能-5</t>
+  </si>
+  <si>
+    <t>カレンダー・予定表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カレンダーと日付ごとの予定内容を表示する機能
+「カレンダー画面」を作成
+</t>
+  </si>
+  <si>
+    <t>アプリの機能-6</t>
+  </si>
+  <si>
+    <t>予定の追加・編集・削除機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カレンダーの日付ごとに予定を追加・編集・削除する機能
+「予定追加画面、予定編集画面、予定追加画面」を作成
+</t>
+  </si>
+  <si>
+    <t>アプリの機能-7</t>
+  </si>
+  <si>
+    <t>予定進捗一覧表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カレンダーの日付ごとに予定を一覧で表示する機能
+「」を作成
 </t>
   </si>
 </sst>
@@ -339,7 +400,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -404,6 +465,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -500,7 +576,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1143817</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>61889</xdr:rowOff>
+      <xdr:rowOff>61888</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -510,7 +586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2103540" y="2377442"/>
-          <a:ext cx="1529478" cy="857543"/>
+          <a:ext cx="1529478" cy="857542"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -909,6 +985,721 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756959</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041836</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="画面イメージ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2001559" y="643330"/>
+          <a:ext cx="1529478" cy="857542"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="5400" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2418" y="0"/>
+                <a:pt x="0" y="4835"/>
+                <a:pt x="0" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="16765"/>
+                <a:pt x="2418" y="21600"/>
+                <a:pt x="5400" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16200" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="19182" y="21600"/>
+                <a:pt x="21600" y="16765"/>
+                <a:pt x="21600" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="4835"/>
+                <a:pt x="19182" y="0"/>
+                <a:pt x="16200" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5400" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>画面イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756959</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041836</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="画面イメージ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2001559" y="643330"/>
+          <a:ext cx="1529478" cy="857542"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="5400" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2418" y="0"/>
+                <a:pt x="0" y="4835"/>
+                <a:pt x="0" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="16765"/>
+                <a:pt x="2418" y="21600"/>
+                <a:pt x="5400" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16200" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="19182" y="21600"/>
+                <a:pt x="21600" y="16765"/>
+                <a:pt x="21600" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="4835"/>
+                <a:pt x="19182" y="0"/>
+                <a:pt x="16200" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5400" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>画面イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756959</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041836</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="画面イメージ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2001559" y="643330"/>
+          <a:ext cx="1529478" cy="857542"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="5400" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2418" y="0"/>
+                <a:pt x="0" y="4835"/>
+                <a:pt x="0" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="16765"/>
+                <a:pt x="2418" y="21600"/>
+                <a:pt x="5400" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16200" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="19182" y="21600"/>
+                <a:pt x="21600" y="16765"/>
+                <a:pt x="21600" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="4835"/>
+                <a:pt x="19182" y="0"/>
+                <a:pt x="16200" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5400" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>画面イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756959</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041836</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="画面イメージ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2001559" y="643330"/>
+          <a:ext cx="1529478" cy="857542"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="5400" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2418" y="0"/>
+                <a:pt x="0" y="4835"/>
+                <a:pt x="0" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="16765"/>
+                <a:pt x="2418" y="21600"/>
+                <a:pt x="5400" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16200" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="19182" y="21600"/>
+                <a:pt x="21600" y="16765"/>
+                <a:pt x="21600" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="4835"/>
+                <a:pt x="19182" y="0"/>
+                <a:pt x="16200" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5400" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>画面イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>756959</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041836</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="画面イメージ"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2001559" y="643330"/>
+          <a:ext cx="1529478" cy="857542"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="5400" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2418" y="0"/>
+                <a:pt x="0" y="4835"/>
+                <a:pt x="0" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="16765"/>
+                <a:pt x="2418" y="21600"/>
+                <a:pt x="5400" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16200" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="19182" y="21600"/>
+                <a:pt x="21600" y="16765"/>
+                <a:pt x="21600" y="10800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="4835"/>
+                <a:pt x="19182" y="0"/>
+                <a:pt x="16200" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5400" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W6"/>
+            </a:rPr>
+            <a:t>画面イメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
@@ -2039,6 +2830,86 @@
         <v>30</v>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="4"/>
+      <c r="C22" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="4"/>
+      <c r="C24" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="4"/>
+      <c r="C26" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4"/>
+      <c r="C28" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -2049,7 +2920,368 @@
     <hyperlink ref="D14" location="'アプリ作成目的'!R1C1" tooltip="" display="アプリ作成目的"/>
     <hyperlink ref="D16" location="'アプリの機能-1'!R1C1" tooltip="" display="アプリの機能-1"/>
     <hyperlink ref="D18" location="'アプリの機能-2'!R1C1" tooltip="" display="アプリの機能-2"/>
+    <hyperlink ref="D20" location="'アプリの機能-3'!R1C1" tooltip="" display="アプリの機能-3"/>
+    <hyperlink ref="D22" location="'アプリの機能-4'!R1C1" tooltip="" display="アプリの機能-4"/>
+    <hyperlink ref="D24" location="'アプリの機能-5'!R1C1" tooltip="" display="アプリの機能-5"/>
+    <hyperlink ref="D26" location="'アプリの機能-6'!R1C1" tooltip="" display="アプリの機能-6"/>
+    <hyperlink ref="D28" location="'アプリの機能-7'!R1C1" tooltip="" display="アプリの機能-7"/>
   </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="28" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="151.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="29" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="151.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3000,4 +4232,538 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="25" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="151.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="26" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="151.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="4" width="19.6016" style="27" customWidth="1"/>
+    <col min="5" max="5" width="38.6328" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.95" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="24.15" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="151.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E21"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>